--- a/INTLINE/data/548/malaysia.xlsx
+++ b/INTLINE/data/548/malaysia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\malaysia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\548\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED357C9-27E8-4E9A-80D9-0B408B2C0110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2AD044-06D0-4F71-BA79-8711C14224BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="16065" yWindow="3315" windowWidth="11145" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="1" r:id="rId1"/>
@@ -5020,12 +5020,12 @@
       <pane xSplit="3" ySplit="18" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B19"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="58.625" customWidth="1"/>
+    <col min="1" max="1" width="80.75" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
     <col min="3" max="3" width="93.125" customWidth="1"/>
     <col min="4" max="4" width="66.375" customWidth="1"/>
@@ -5225,7 +5225,7 @@
         <v>-47448.213000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="20.25">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>-7651.0360000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="20.25">
       <c r="A6" t="s">
         <v>861</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>-28583.850999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" ht="20.25">
       <c r="A8" s="20" t="s">
         <v>861</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>-2721.0719039698902</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" ht="20.25">
       <c r="A12" s="20" t="s">
         <v>861</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>19296.593903969901</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" ht="20.25">
       <c r="A13" t="s">
         <v>861</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>-107.04732111</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" ht="20.25">
       <c r="A14" t="s">
         <v>861</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>-1245.7263230200001</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" ht="20.25">
       <c r="A15" t="s">
         <v>861</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>124229</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="20.25" hidden="1">
+    <row r="43" spans="1:20" hidden="1">
       <c r="A43" t="s">
         <v>801</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>29512</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="20.25" hidden="1">
+    <row r="45" spans="1:20" hidden="1">
       <c r="A45" t="s">
         <v>801</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>34494.80236098</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="20.25" hidden="1">
+    <row r="54" spans="1:20" hidden="1">
       <c r="A54" t="s">
         <v>802</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>184043</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="20.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="19" t="s">
         <v>778</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>-17016</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="20.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="19" t="s">
         <v>778</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>779011</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="20.25" hidden="1">
+    <row r="75" spans="1:20" hidden="1">
       <c r="A75" t="s">
         <v>778</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>1388021</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="20.25" hidden="1">
+    <row r="77" spans="1:20" hidden="1">
       <c r="A77" t="s">
         <v>778</v>
       </c>
